--- a/data/trans_dic/P16A15-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Dificultad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A15-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1315567978974226</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1540639441911463</v>
+        <v>0.1540639441911464</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1162425010875597</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07394542273122851</v>
+        <v>0.0731288328394321</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08622542246774781</v>
+        <v>0.08487534468650751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09477047196552327</v>
+        <v>0.09499174576333216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09919737193900478</v>
+        <v>0.09960023893844866</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1108378321779989</v>
+        <v>0.1090844495493133</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1336713222332396</v>
+        <v>0.1301364581266274</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.113599398402672</v>
+        <v>0.1124681699422221</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1311004932812404</v>
+        <v>0.1327418586324146</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1014735300973927</v>
+        <v>0.1000339081406911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1131834660978526</v>
+        <v>0.1150416599380446</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1088382765369794</v>
+        <v>0.1093732703067475</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1249321138270399</v>
+        <v>0.1245384170696178</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1186449850635486</v>
+        <v>0.120185674872136</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1236856976477642</v>
+        <v>0.1251231884609044</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1317721821810152</v>
+        <v>0.1330064495539579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1546714997341088</v>
+        <v>0.1550878966682747</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1546509138467933</v>
+        <v>0.1542848702926508</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1778418945407727</v>
+        <v>0.1751094066973831</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1537816163441727</v>
+        <v>0.1517270179461445</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1777668462661508</v>
+        <v>0.1778378994260669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1338119321275444</v>
+        <v>0.1340204124030784</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.143711022393073</v>
+        <v>0.1449443131543741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1373946715024718</v>
+        <v>0.1376459868914661</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1578864914540444</v>
+        <v>0.1594848075732339</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04175498303566482</v>
+        <v>0.04058632580220083</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08001963035118348</v>
+        <v>0.08125500337369615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07004027569863187</v>
+        <v>0.06959581476564174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1087118710710817</v>
+        <v>0.1069689872036552</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05129749470945797</v>
+        <v>0.05170499835522794</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08229961519350668</v>
+        <v>0.08362881974147403</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07172406236366788</v>
+        <v>0.07227432966816368</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.136794232284965</v>
+        <v>0.1386018294694546</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04955491591050855</v>
+        <v>0.05017233266985336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08696233708959084</v>
+        <v>0.08713703811110782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07485080159444543</v>
+        <v>0.07620680901854796</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1290781642006245</v>
+        <v>0.1288357751320788</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06819985073344741</v>
+        <v>0.06835160835020869</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.121852306554693</v>
+        <v>0.1217390589186083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1061293635180075</v>
+        <v>0.1060367105123748</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1491658825893836</v>
+        <v>0.1488160993327551</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07957666475312861</v>
+        <v>0.08086505378244035</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1211227793048026</v>
+        <v>0.121399653078223</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1112575149188355</v>
+        <v>0.1092835331625604</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1714409088956151</v>
+        <v>0.1714981949577097</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06962134810903478</v>
+        <v>0.07073863260254663</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1146054656994166</v>
+        <v>0.1149472651770101</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1015594116581041</v>
+        <v>0.1034591294994766</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1556216089726711</v>
+        <v>0.1549163049089103</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03644912917288601</v>
+        <v>0.03509762581063057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09333347325193884</v>
+        <v>0.0907893369651592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06781369229998561</v>
+        <v>0.06775762606204888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1008933012076316</v>
+        <v>0.1007215909998931</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04670732166712482</v>
+        <v>0.04521094053663851</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1084369095663351</v>
+        <v>0.1057319519624545</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07138583673955032</v>
+        <v>0.07276082410445835</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1097467232949857</v>
+        <v>0.1085857221542818</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04390608800869911</v>
+        <v>0.04395691111888008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1033904329534179</v>
+        <v>0.1044187898751434</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07481439472236495</v>
+        <v>0.07389819151424655</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1087915795500301</v>
+        <v>0.1085264414997264</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05995096373717419</v>
+        <v>0.06084539471060441</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.136922815383413</v>
+        <v>0.1390053674763033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1068042911678044</v>
+        <v>0.1058981153287543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1350059387033079</v>
+        <v>0.1371081593169004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07535919018568016</v>
+        <v>0.07594081316973815</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1522898985276155</v>
+        <v>0.1507347278695906</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.118605999755629</v>
+        <v>0.1183741675189943</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1425214701025373</v>
+        <v>0.1401229356519693</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06351035416023798</v>
+        <v>0.06275164477175268</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1357209805687565</v>
+        <v>0.1376919177748111</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1038470072001263</v>
+        <v>0.1039871875670593</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1326747956248574</v>
+        <v>0.1324684740571684</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02518206254381096</v>
+        <v>0.02474622567116628</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06279660592684762</v>
+        <v>0.06339865129591431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05087169778009244</v>
+        <v>0.05270691592274021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09952011054860935</v>
+        <v>0.1000165609388853</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02700170416760955</v>
+        <v>0.02945867820608843</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0650847884591827</v>
+        <v>0.06307104336934714</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09037790193790707</v>
+        <v>0.09030589678622698</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1102074728200024</v>
+        <v>0.112690008502728</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03042671076345617</v>
+        <v>0.03092997934030084</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06978847773828489</v>
+        <v>0.07078946940515049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07795139549223934</v>
+        <v>0.0789435886426868</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1121465465822106</v>
+        <v>0.1123722382398643</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06399871923229115</v>
+        <v>0.06188067772918757</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1169981119911751</v>
+        <v>0.120649198980265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0978415678551747</v>
+        <v>0.1000970284317041</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1388563244624104</v>
+        <v>0.1389034019901837</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07715260151473334</v>
+        <v>0.07668255548845905</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1183422042147869</v>
+        <v>0.1215907140946787</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1568527621108843</v>
+        <v>0.1546157370832678</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1450317440164355</v>
+        <v>0.1451069424664506</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05896861760167348</v>
+        <v>0.06153073820235194</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1105146021062609</v>
+        <v>0.1091679918345289</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.116953522224046</v>
+        <v>0.1156325344994008</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1363222021187669</v>
+        <v>0.1364047668588506</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04956042424738315</v>
+        <v>0.04907479728802792</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09232717708583943</v>
+        <v>0.09239544416742086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08381463791166736</v>
+        <v>0.08357151771122394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1117253487829213</v>
+        <v>0.1114263666828236</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0709800996935168</v>
+        <v>0.0697669603636186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1122491161679147</v>
+        <v>0.1117871440456776</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09919340599879201</v>
+        <v>0.09899429419241002</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1306079405432298</v>
+        <v>0.1314056115630446</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06283384619148569</v>
+        <v>0.06277629380851821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1042654134197604</v>
+        <v>0.1043839006459636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09416835527720034</v>
+        <v>0.09386149073384902</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1242753474841344</v>
+        <v>0.1243671883008567</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06584139186688473</v>
+        <v>0.06572959176331306</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.114340762395722</v>
+        <v>0.1142644035069013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1026171639030721</v>
+        <v>0.1032040671043874</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1318127462199409</v>
+        <v>0.1314884646930546</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08883829364523164</v>
+        <v>0.08940998854272637</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1339127848364743</v>
+        <v>0.1336728037079623</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1213909593351198</v>
+        <v>0.1197983206107473</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1480586026689946</v>
+        <v>0.1476972173658358</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07498862364316403</v>
+        <v>0.07441460722635973</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1211482192536432</v>
+        <v>0.1207884689648848</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1085400650707827</v>
+        <v>0.1090162392035036</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1377707049798816</v>
+        <v>0.1379110365713466</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43195</v>
+        <v>42718</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>89830</v>
+        <v>88424</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>106901</v>
+        <v>107150</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>49474</v>
+        <v>49675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>102229</v>
+        <v>100612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>148739</v>
+        <v>144806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>143085</v>
+        <v>141661</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>81752</v>
+        <v>82775</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>152867</v>
+        <v>150698</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>243857</v>
+        <v>247861</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>259858</v>
+        <v>261135</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>140214</v>
+        <v>139772</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69305</v>
+        <v>70205</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>128857</v>
+        <v>130354</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>148639</v>
+        <v>150031</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>77141</v>
+        <v>77348</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>142640</v>
+        <v>142302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>197889</v>
+        <v>194848</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>193697</v>
+        <v>191109</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>110852</v>
+        <v>110896</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>201584</v>
+        <v>201898</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>309630</v>
+        <v>312287</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>328038</v>
+        <v>328638</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>177199</v>
+        <v>178993</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45007</v>
+        <v>43748</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78047</v>
+        <v>79252</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63654</v>
+        <v>63250</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>104378</v>
+        <v>102705</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54249</v>
+        <v>54680</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>89883</v>
+        <v>91334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>72188</v>
+        <v>72742</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>152559</v>
+        <v>154575</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>105821</v>
+        <v>107140</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>179793</v>
+        <v>180154</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>143362</v>
+        <v>145959</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>267887</v>
+        <v>267384</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73512</v>
+        <v>73676</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>118848</v>
+        <v>118737</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>96453</v>
+        <v>96369</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>143220</v>
+        <v>142884</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84155</v>
+        <v>85518</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>132283</v>
+        <v>132585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>111978</v>
+        <v>109991</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>191199</v>
+        <v>191263</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>148672</v>
+        <v>151058</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>236945</v>
+        <v>237652</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>194517</v>
+        <v>198155</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>322974</v>
+        <v>321511</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40844</v>
+        <v>39330</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>82524</v>
+        <v>80275</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55862</v>
+        <v>55816</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>105583</v>
+        <v>105403</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>46424</v>
+        <v>44937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94856</v>
+        <v>92490</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>55043</v>
+        <v>56103</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>114975</v>
+        <v>113759</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>92840</v>
+        <v>92948</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>181858</v>
+        <v>183667</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>119315</v>
+        <v>117854</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>227823</v>
+        <v>227268</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>67180</v>
+        <v>68182</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>121065</v>
+        <v>122906</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87981</v>
+        <v>87235</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>141281</v>
+        <v>143481</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74903</v>
+        <v>75481</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>133217</v>
+        <v>131857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>91452</v>
+        <v>91273</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>149311</v>
+        <v>146799</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>134294</v>
+        <v>132689</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>238726</v>
+        <v>242193</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>165617</v>
+        <v>165841</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>277837</v>
+        <v>277405</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11261</v>
+        <v>11067</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31537</v>
+        <v>31839</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25777</v>
+        <v>26707</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>97125</v>
+        <v>97609</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9212</v>
+        <v>10050</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29345</v>
+        <v>28437</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>44258</v>
+        <v>44223</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>100139</v>
+        <v>102395</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23987</v>
+        <v>24384</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>66514</v>
+        <v>67468</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>77671</v>
+        <v>78659</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>211348</v>
+        <v>211773</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28620</v>
+        <v>27673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58758</v>
+        <v>60591</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49576</v>
+        <v>50719</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>135514</v>
+        <v>135560</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26321</v>
+        <v>26161</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>53357</v>
+        <v>54821</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>76810</v>
+        <v>75715</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>131782</v>
+        <v>131850</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46488</v>
+        <v>48508</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>105329</v>
+        <v>104046</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>116532</v>
+        <v>115216</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>256909</v>
+        <v>257064</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>160071</v>
+        <v>158502</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>314240</v>
+        <v>314472</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>282228</v>
+        <v>281409</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>388948</v>
+        <v>387907</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>235297</v>
+        <v>231275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>396295</v>
+        <v>394664</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>349835</v>
+        <v>349132</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>482611</v>
+        <v>485558</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>411234</v>
+        <v>410857</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>722981</v>
+        <v>723802</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>649204</v>
+        <v>647088</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>891849</v>
+        <v>892508</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>212655</v>
+        <v>212294</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>389164</v>
+        <v>388904</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>345541</v>
+        <v>347517</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>458878</v>
+        <v>457749</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>294496</v>
+        <v>296391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>472778</v>
+        <v>471931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>428121</v>
+        <v>422504</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>547093</v>
+        <v>545757</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>490784</v>
+        <v>487027</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>840047</v>
+        <v>837552</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>748283</v>
+        <v>751566</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>988697</v>
+        <v>989704</v>
       </c>
     </row>
     <row r="24">
